--- a/HCL.xlsx
+++ b/HCL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VishnuManchala\Desktop\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E2AB68-C234-4E6D-BFC3-30B664B89B74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D6EBD-47FC-466D-9541-01ED2EA6631A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9C6DCB8A-18DE-4262-9433-C43FD41BF969}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Description</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Install, Configure and Integrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Document and Implement</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,7 +855,9 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="I14" s="3" t="s">
